--- a/contratos/contratos-12-2014.xlsx
+++ b/contratos/contratos-12-2014.xlsx
@@ -712,13 +712,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>OLIVERA JOSE PEDRO</t>
@@ -1036,7 +1036,7 @@
     <t>MATHEY DORET FABRICIO</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>GEO SONIDO</t>
@@ -1210,529 +1210,529 @@
     <t>275</t>
   </si>
   <si>
-    <t>7.575,00</t>
-  </si>
-  <si>
-    <t>9.305,00</t>
-  </si>
-  <si>
-    <t>108.000,00</t>
-  </si>
-  <si>
-    <t>79.000,00</t>
-  </si>
-  <si>
-    <t>936.530,00</t>
-  </si>
-  <si>
-    <t>69.000,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>448,00</t>
-  </si>
-  <si>
-    <t>204.673,69</t>
-  </si>
-  <si>
-    <t>544.500,00</t>
-  </si>
-  <si>
-    <t>1.825,20</t>
-  </si>
-  <si>
-    <t>1.770,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>530.931,84</t>
-  </si>
-  <si>
-    <t>40.680,00</t>
-  </si>
-  <si>
-    <t>106.470,75</t>
-  </si>
-  <si>
-    <t>8.086,00</t>
-  </si>
-  <si>
-    <t>5.934,00</t>
-  </si>
-  <si>
-    <t>24.981,74</t>
-  </si>
-  <si>
-    <t>1.337,00</t>
-  </si>
-  <si>
-    <t>13.749,49</t>
-  </si>
-  <si>
-    <t>12.753,02</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>5.100,00</t>
-  </si>
-  <si>
-    <t>50.558,60</t>
-  </si>
-  <si>
-    <t>36,00</t>
-  </si>
-  <si>
-    <t>80.351,98</t>
-  </si>
-  <si>
-    <t>2.391,04</t>
-  </si>
-  <si>
-    <t>837,02</t>
-  </si>
-  <si>
-    <t>84.970,10</t>
-  </si>
-  <si>
-    <t>287,76</t>
-  </si>
-  <si>
-    <t>10.578,92</t>
-  </si>
-  <si>
-    <t>1.666,56</t>
-  </si>
-  <si>
-    <t>6.259,00</t>
-  </si>
-  <si>
-    <t>78.298,00</t>
-  </si>
-  <si>
-    <t>21.687,83</t>
-  </si>
-  <si>
-    <t>1.229,78</t>
-  </si>
-  <si>
-    <t>285,00</t>
-  </si>
-  <si>
-    <t>1.200,64</t>
-  </si>
-  <si>
-    <t>2.569,86</t>
-  </si>
-  <si>
-    <t>2.873,88</t>
-  </si>
-  <si>
-    <t>3.958,75</t>
-  </si>
-  <si>
-    <t>11.799,00</t>
-  </si>
-  <si>
-    <t>12.940,51</t>
-  </si>
-  <si>
-    <t>19.790,00</t>
-  </si>
-  <si>
-    <t>18.654,73</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>369,96</t>
-  </si>
-  <si>
-    <t>6.719,68</t>
-  </si>
-  <si>
-    <t>4.655,00</t>
-  </si>
-  <si>
-    <t>19.705,00</t>
-  </si>
-  <si>
-    <t>1.317,73</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>6.159,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>25.800,00</t>
-  </si>
-  <si>
-    <t>577,64</t>
-  </si>
-  <si>
-    <t>10.174,00</t>
-  </si>
-  <si>
-    <t>6.226,65</t>
-  </si>
-  <si>
-    <t>327,57</t>
-  </si>
-  <si>
-    <t>2.831,99</t>
-  </si>
-  <si>
-    <t>11.797,50</t>
-  </si>
-  <si>
-    <t>3.293,00</t>
-  </si>
-  <si>
-    <t>13.792,00</t>
-  </si>
-  <si>
-    <t>138,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>640,00</t>
-  </si>
-  <si>
-    <t>39.000,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>15.816,75</t>
-  </si>
-  <si>
-    <t>44.455,68</t>
-  </si>
-  <si>
-    <t>1.626,00</t>
-  </si>
-  <si>
-    <t>13.120,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.821,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>17.140,00</t>
-  </si>
-  <si>
-    <t>397,56</t>
-  </si>
-  <si>
-    <t>4.350,00</t>
-  </si>
-  <si>
-    <t>3.898,00</t>
-  </si>
-  <si>
-    <t>287,00</t>
-  </si>
-  <si>
-    <t>577,90</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>406,56</t>
-  </si>
-  <si>
-    <t>345.761,96</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>322,60</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>243,79</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>108,00</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>20.503,80</t>
-  </si>
-  <si>
-    <t>1.932,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>152,00</t>
-  </si>
-  <si>
-    <t>1.850,00</t>
-  </si>
-  <si>
-    <t>10.850,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>713,60</t>
-  </si>
-  <si>
-    <t>38.898,00</t>
-  </si>
-  <si>
-    <t>15.100,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>126.210,00</t>
-  </si>
-  <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>1.314,86</t>
-  </si>
-  <si>
-    <t>8.133,17</t>
-  </si>
-  <si>
-    <t>117,90</t>
-  </si>
-  <si>
-    <t>5.688,54</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>4.695,41</t>
-  </si>
-  <si>
-    <t>3.180,00</t>
-  </si>
-  <si>
-    <t>51.344,50</t>
-  </si>
-  <si>
-    <t>365,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>16.450,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>79.860,00</t>
-  </si>
-  <si>
-    <t>129,60</t>
-  </si>
-  <si>
-    <t>1.935,00</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>405,50</t>
-  </si>
-  <si>
-    <t>294,25</t>
-  </si>
-  <si>
-    <t>7.650,00</t>
-  </si>
-  <si>
-    <t>14.429,00</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>1.488,96</t>
-  </si>
-  <si>
-    <t>199,50</t>
-  </si>
-  <si>
-    <t>2.010,00</t>
-  </si>
-  <si>
-    <t>20.490,00</t>
-  </si>
-  <si>
-    <t>1.630,00</t>
-  </si>
-  <si>
-    <t>53.258,29</t>
-  </si>
-  <si>
-    <t>889,57</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>35.889,12</t>
-  </si>
-  <si>
-    <t>30.230,00</t>
-  </si>
-  <si>
-    <t>12.200,00</t>
-  </si>
-  <si>
-    <t>2.449,74</t>
-  </si>
-  <si>
-    <t>2.296.634,21</t>
-  </si>
-  <si>
-    <t>3.565,86</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>149.300,20</t>
-  </si>
-  <si>
-    <t>432.672,00</t>
-  </si>
-  <si>
-    <t>533.756,00</t>
-  </si>
-  <si>
-    <t>119.609,00</t>
-  </si>
-  <si>
-    <t>260.560,00</t>
-  </si>
-  <si>
-    <t>262.319,00</t>
-  </si>
-  <si>
-    <t>154.146,00</t>
-  </si>
-  <si>
-    <t>563.836,00</t>
-  </si>
-  <si>
-    <t>332.896,00</t>
-  </si>
-  <si>
-    <t>625.816,00</t>
-  </si>
-  <si>
-    <t>186.996,00</t>
-  </si>
-  <si>
-    <t>1.744.306,76</t>
-  </si>
-  <si>
-    <t>549.827,75</t>
-  </si>
-  <si>
-    <t>133.295,40</t>
-  </si>
-  <si>
-    <t>148.890,00</t>
-  </si>
-  <si>
-    <t>36.000,00</t>
-  </si>
-  <si>
-    <t>105.800,00</t>
-  </si>
-  <si>
-    <t>8.540,00</t>
-  </si>
-  <si>
-    <t>22.200,00</t>
-  </si>
-  <si>
-    <t>1.351.425,00</t>
-  </si>
-  <si>
-    <t>3.152,00</t>
-  </si>
-  <si>
-    <t>39.500,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
+    <t>7575.00</t>
+  </si>
+  <si>
+    <t>9305.00</t>
+  </si>
+  <si>
+    <t>108000.00</t>
+  </si>
+  <si>
+    <t>79000.00</t>
+  </si>
+  <si>
+    <t>936530.00</t>
+  </si>
+  <si>
+    <t>69000.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>448.00</t>
+  </si>
+  <si>
+    <t>204673.69</t>
+  </si>
+  <si>
+    <t>544500.00</t>
+  </si>
+  <si>
+    <t>1825.20</t>
+  </si>
+  <si>
+    <t>1770.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>530931.84</t>
+  </si>
+  <si>
+    <t>40680.00</t>
+  </si>
+  <si>
+    <t>106470.75</t>
+  </si>
+  <si>
+    <t>8086.00</t>
+  </si>
+  <si>
+    <t>5934.00</t>
+  </si>
+  <si>
+    <t>24981.74</t>
+  </si>
+  <si>
+    <t>1337.00</t>
+  </si>
+  <si>
+    <t>13749.49</t>
+  </si>
+  <si>
+    <t>12753.02</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>5100.00</t>
+  </si>
+  <si>
+    <t>50558.60</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>80351.98</t>
+  </si>
+  <si>
+    <t>2391.04</t>
+  </si>
+  <si>
+    <t>837.02</t>
+  </si>
+  <si>
+    <t>84970.10</t>
+  </si>
+  <si>
+    <t>287.76</t>
+  </si>
+  <si>
+    <t>10578.92</t>
+  </si>
+  <si>
+    <t>1666.56</t>
+  </si>
+  <si>
+    <t>6259.00</t>
+  </si>
+  <si>
+    <t>78298.00</t>
+  </si>
+  <si>
+    <t>21687.83</t>
+  </si>
+  <si>
+    <t>1229.78</t>
+  </si>
+  <si>
+    <t>285.00</t>
+  </si>
+  <si>
+    <t>1200.64</t>
+  </si>
+  <si>
+    <t>2569.86</t>
+  </si>
+  <si>
+    <t>2873.88</t>
+  </si>
+  <si>
+    <t>3958.75</t>
+  </si>
+  <si>
+    <t>11799.00</t>
+  </si>
+  <si>
+    <t>12940.51</t>
+  </si>
+  <si>
+    <t>19790.00</t>
+  </si>
+  <si>
+    <t>18654.73</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>369.96</t>
+  </si>
+  <si>
+    <t>6719.68</t>
+  </si>
+  <si>
+    <t>4655.00</t>
+  </si>
+  <si>
+    <t>19705.00</t>
+  </si>
+  <si>
+    <t>1317.73</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>6159.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>25800.00</t>
+  </si>
+  <si>
+    <t>577.64</t>
+  </si>
+  <si>
+    <t>10174.00</t>
+  </si>
+  <si>
+    <t>6226.65</t>
+  </si>
+  <si>
+    <t>327.57</t>
+  </si>
+  <si>
+    <t>2831.99</t>
+  </si>
+  <si>
+    <t>11797.50</t>
+  </si>
+  <si>
+    <t>3293.00</t>
+  </si>
+  <si>
+    <t>13792.00</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>640.00</t>
+  </si>
+  <si>
+    <t>39000.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>15816.75</t>
+  </si>
+  <si>
+    <t>44455.68</t>
+  </si>
+  <si>
+    <t>1626.00</t>
+  </si>
+  <si>
+    <t>13120.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1821.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>17140.00</t>
+  </si>
+  <si>
+    <t>397.56</t>
+  </si>
+  <si>
+    <t>4350.00</t>
+  </si>
+  <si>
+    <t>3898.00</t>
+  </si>
+  <si>
+    <t>287.00</t>
+  </si>
+  <si>
+    <t>577.90</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>406.56</t>
+  </si>
+  <si>
+    <t>345761.96</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>322.60</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>243.79</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>20503.80</t>
+  </si>
+  <si>
+    <t>1932.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>1850.00</t>
+  </si>
+  <si>
+    <t>10850.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>713.60</t>
+  </si>
+  <si>
+    <t>38898.00</t>
+  </si>
+  <si>
+    <t>15100.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>126210.00</t>
+  </si>
+  <si>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>1314.86</t>
+  </si>
+  <si>
+    <t>8133.17</t>
+  </si>
+  <si>
+    <t>117.90</t>
+  </si>
+  <si>
+    <t>5688.54</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>4695.41</t>
+  </si>
+  <si>
+    <t>3180.00</t>
+  </si>
+  <si>
+    <t>51344.50</t>
+  </si>
+  <si>
+    <t>365.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>16450.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>79860.00</t>
+  </si>
+  <si>
+    <t>129.60</t>
+  </si>
+  <si>
+    <t>1935.00</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>405.50</t>
+  </si>
+  <si>
+    <t>294.25</t>
+  </si>
+  <si>
+    <t>7650.00</t>
+  </si>
+  <si>
+    <t>14429.00</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>1488.96</t>
+  </si>
+  <si>
+    <t>199.50</t>
+  </si>
+  <si>
+    <t>2010.00</t>
+  </si>
+  <si>
+    <t>20490.00</t>
+  </si>
+  <si>
+    <t>1630.00</t>
+  </si>
+  <si>
+    <t>53258.29</t>
+  </si>
+  <si>
+    <t>889.57</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>35889.12</t>
+  </si>
+  <si>
+    <t>30230.00</t>
+  </si>
+  <si>
+    <t>12200.00</t>
+  </si>
+  <si>
+    <t>2449.74</t>
+  </si>
+  <si>
+    <t>2296634.21</t>
+  </si>
+  <si>
+    <t>3565.86</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>149300.20</t>
+  </si>
+  <si>
+    <t>432672.00</t>
+  </si>
+  <si>
+    <t>533756.00</t>
+  </si>
+  <si>
+    <t>119609.00</t>
+  </si>
+  <si>
+    <t>260560.00</t>
+  </si>
+  <si>
+    <t>262319.00</t>
+  </si>
+  <si>
+    <t>154146.00</t>
+  </si>
+  <si>
+    <t>563836.00</t>
+  </si>
+  <si>
+    <t>332896.00</t>
+  </si>
+  <si>
+    <t>625816.00</t>
+  </si>
+  <si>
+    <t>186996.00</t>
+  </si>
+  <si>
+    <t>1744306.76</t>
+  </si>
+  <si>
+    <t>549827.75</t>
+  </si>
+  <si>
+    <t>133295.40</t>
+  </si>
+  <si>
+    <t>148890.00</t>
+  </si>
+  <si>
+    <t>36000.00</t>
+  </si>
+  <si>
+    <t>105800.00</t>
+  </si>
+  <si>
+    <t>8540.00</t>
+  </si>
+  <si>
+    <t>22200.00</t>
+  </si>
+  <si>
+    <t>1351425.00</t>
+  </si>
+  <si>
+    <t>3152.00</t>
+  </si>
+  <si>
+    <t>39500.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
   </si>
 </sst>
 </file>
